--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_24.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>917673.6933121518</v>
+        <v>914108.1914386031</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.8925167</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791243</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10286946.78906355</v>
+        <v>10283406.91272104</v>
       </c>
     </row>
     <row r="11">
@@ -665,16 +665,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>188.4859083609502</v>
       </c>
       <c r="F2" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -722,10 +722,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.07459820227829</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -798,13 +798,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102172983</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>83.1054021528365</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5166442988116</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>260.0968041364095</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>330.1551728925708</v>
       </c>
       <c r="F5" t="n">
         <v>12.725494085322</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>12.45399773978184</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>167.5573060520123</v>
+        <v>50.64353720722711</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1041,7 +1041,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="7">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -1066,10 +1066,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>39.21586356488641</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>238.7513511834822</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1184,7 +1184,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>363.3780900211418</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,10 +1294,10 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>87.95308749070819</v>
       </c>
       <c r="X10" t="n">
-        <v>11.61260049965499</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -1370,10 +1370,10 @@
         <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>53.9287519968878</v>
       </c>
       <c r="E11" t="n">
         <v>327.479377239889</v>
@@ -1385,10 +1385,10 @@
         <v>337.952815562145</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372795</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362807</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>153.3464425048767</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V11" t="n">
         <v>267.6074288087849</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465764</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442491</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456102</v>
+        <v>3.136942644479045</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901693</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S13" t="n">
-        <v>92.01077044629872</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457862</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534023</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
         <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>337.952815562145</v>
       </c>
       <c r="H14" t="n">
-        <v>97.88608078220162</v>
+        <v>249.7639075344424</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372788</v>
+        <v>65.87543334372792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362804</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087848</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>46.59880215511618</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465757</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
@@ -1819,19 +1819,19 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>35.81990257081226</v>
       </c>
       <c r="W16" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>4.788244861557896</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380518</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596459</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2621,7 +2621,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2795,7 +2795,7 @@
         <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
-        <v>287.5954430211818</v>
+        <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
         <v>304.5664151603044</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838888</v>
+        <v>24.17382596574998</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828901</v>
+        <v>52.06849973565011</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161066</v>
+        <v>108.4856766434677</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431733</v>
+        <v>70.57601873167843</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459974</v>
+        <v>55.72314698196084</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643946</v>
+        <v>41.29686219380056</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931857</v>
+        <v>41.22330424667967</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908584</v>
+        <v>42.97275566644694</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147798</v>
+        <v>53.79159358883908</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805002</v>
+        <v>41.14384575541112</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922195</v>
+        <v>18.98356133658305</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367787</v>
+        <v>9.882059701038969</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920519</v>
+        <v>88.00800320656629</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133773</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665142</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D35" t="n">
-        <v>251.2267481799144</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697375</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412923</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
-        <v>190.4822506135897</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875294</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277542</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059297</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541628</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658109</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006892</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880374</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908615</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092587</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380498</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357225</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596439</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253643</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708361</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.4279536636916</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978637</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249335</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117995</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
-        <v>150.1371287325496</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792622</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593855</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3500,13 +3500,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3518,10 +3518,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E40" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F40" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G40" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3721,13 +3721,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="41">
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C41" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E41" t="n">
         <v>268.1977203190365</v>
@@ -3755,10 +3755,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978638</v>
@@ -3958,13 +3958,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X43" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C44" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E44" t="n">
         <v>268.1977203190365</v>
@@ -3992,10 +3992,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422876942</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F46" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978638</v>
@@ -4195,13 +4195,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>607.8495662439052</v>
+        <v>716.2896064237962</v>
       </c>
       <c r="C2" t="n">
-        <v>607.8495662439052</v>
+        <v>716.2896064237962</v>
       </c>
       <c r="D2" t="n">
-        <v>607.8495662439052</v>
+        <v>716.2896064237962</v>
       </c>
       <c r="E2" t="n">
-        <v>607.8495662439052</v>
+        <v>525.8997999985939</v>
       </c>
       <c r="F2" t="n">
-        <v>594.995531814287</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222168</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L2" t="n">
-        <v>668.673300197865</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207958</v>
+        <v>773.3325661833852</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.74336884542</v>
+        <v>1286.935244793074</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737748</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.79005602327</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964321</v>
+        <v>1908.648782757975</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.276500964321</v>
+        <v>1685.148180317392</v>
       </c>
       <c r="U2" t="n">
-        <v>1714.52377139892</v>
+        <v>1429.39545075199</v>
       </c>
       <c r="V2" t="n">
-        <v>1372.416962102438</v>
+        <v>1087.288641455509</v>
       </c>
       <c r="W2" t="n">
-        <v>1001.417927070725</v>
+        <v>716.2896064237962</v>
       </c>
       <c r="X2" t="n">
-        <v>611.9653220037823</v>
+        <v>716.2896064237962</v>
       </c>
       <c r="Y2" t="n">
-        <v>607.8495662439052</v>
+        <v>716.2896064237962</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>156.6106416144823</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K3" t="n">
-        <v>402.0727246834709</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L3" t="n">
-        <v>885.6388105817841</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="M3" t="n">
-        <v>885.6388105817841</v>
+        <v>525.0693326546517</v>
       </c>
       <c r="N3" t="n">
-        <v>1423.897595591877</v>
+        <v>921.5731989359475</v>
       </c>
       <c r="O3" t="n">
-        <v>1940.417878182858</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182858</v>
+        <v>1840.797246262034</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635813</v>
+        <v>2051.245294714989</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535682</v>
+        <v>1916.314617614858</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.95143773459</v>
+        <v>1739.330805813766</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413232</v>
+        <v>1529.267662492408</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784299</v>
+        <v>1306.727660863475</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996762</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>992.6655643373308</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>586.9613703518675</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C4" t="n">
-        <v>586.9613703518675</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D4" t="n">
-        <v>586.9613703518675</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E4" t="n">
-        <v>519.7728407571083</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>362.4469059700812</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315751</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865301</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>821.0416925688844</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="W4" t="n">
-        <v>821.0416925688844</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="X4" t="n">
-        <v>586.9613703518675</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="Y4" t="n">
-        <v>586.9613703518675</v>
+        <v>680.2262247156591</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>471.2273424897847</v>
+        <v>396.9697062864088</v>
       </c>
       <c r="C5" t="n">
-        <v>78.05184099271526</v>
+        <v>396.9697062864088</v>
       </c>
       <c r="D5" t="n">
-        <v>78.05184099271526</v>
+        <v>396.9697062864088</v>
       </c>
       <c r="E5" t="n">
-        <v>78.05184099271526</v>
+        <v>63.47963265754944</v>
       </c>
       <c r="F5" t="n">
-        <v>65.19780656309707</v>
+        <v>50.62559822793126</v>
       </c>
       <c r="G5" t="n">
-        <v>56.0754550915043</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H5" t="n">
-        <v>56.0754550915043</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>43.49565939475497</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>402.4780154222168</v>
+        <v>545.1353756926285</v>
       </c>
       <c r="L5" t="n">
-        <v>402.4780154222168</v>
+        <v>607.9173797052184</v>
       </c>
       <c r="M5" t="n">
-        <v>940.7368004323095</v>
+        <v>1121.520058314907</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.71031657295</v>
+        <v>1635.122736924596</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465278</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.9374095968</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.79005602327</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>1970.276500964321</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T5" t="n">
-        <v>1970.276500964321</v>
+        <v>1813.668821661863</v>
       </c>
       <c r="U5" t="n">
-        <v>1970.276500964321</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="V5" t="n">
-        <v>1628.169691667839</v>
+        <v>1557.916092096461</v>
       </c>
       <c r="W5" t="n">
-        <v>1257.170656636127</v>
+        <v>1186.917057064749</v>
       </c>
       <c r="X5" t="n">
-        <v>867.7180515691836</v>
+        <v>797.4644519978057</v>
       </c>
       <c r="Y5" t="n">
-        <v>471.2273424897847</v>
+        <v>797.4644519978057</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284338</v>
+        <v>90.8905007444269</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K6" t="n">
-        <v>476.3497876767088</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>476.3497876767088</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653866</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875479</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.79650946646</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182858</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737748</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635813</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535682</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="T6" t="n">
-        <v>1846.68544544274</v>
+        <v>2024.007249728816</v>
       </c>
       <c r="U6" t="n">
-        <v>1636.622302121382</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1414.082300492449</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1183.965054625736</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>994.6579769757473</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>835.7461243591251</v>
+        <v>680.2262247156591</v>
       </c>
       <c r="C7" t="n">
-        <v>835.7461243591251</v>
+        <v>510.0211067816483</v>
       </c>
       <c r="D7" t="n">
-        <v>680.1130112616399</v>
+        <v>354.387993684163</v>
       </c>
       <c r="E7" t="n">
-        <v>524.5541991208424</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F7" t="n">
-        <v>367.2282643338154</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G7" t="n">
-        <v>198.974210433261</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475497</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X7" t="n">
-        <v>944.9426819363074</v>
+        <v>903.3382858990158</v>
       </c>
       <c r="Y7" t="n">
-        <v>944.9426819363074</v>
+        <v>680.2262247156591</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>997.1080057340261</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="C8" t="n">
-        <v>997.1080057340261</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="D8" t="n">
-        <v>611.6668769506938</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="E8" t="n">
-        <v>611.6668769506938</v>
+        <v>1164.058873948001</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>265.4829774041385</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1397.79762054739</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X8" t="n">
-        <v>1794.093460524822</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1397.602751445423</v>
+        <v>1566.642398831457</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834975</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>963.7331842818107</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1436.116207068686</v>
       </c>
       <c r="N9" t="n">
-        <v>2134.729194295015</v>
+        <v>2021.614212075288</v>
       </c>
       <c r="O9" t="n">
         <v>2365.64850507718</v>
@@ -4936,13 +4936,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.7100132738371</v>
+        <v>217.5180880355544</v>
       </c>
       <c r="C10" t="n">
-        <v>358.5048953398264</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>202.8717822423411</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
         <v>47.31297010154361</v>
@@ -4999,13 +4999,13 @@
         <v>948.7599926430961</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>859.9184901272292</v>
       </c>
       <c r="X10" t="n">
-        <v>937.0300931484951</v>
+        <v>625.8381679102123</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.9180319651384</v>
+        <v>402.7261067268557</v>
       </c>
     </row>
     <row r="11">
@@ -5015,31 +5015,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.935942880365</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="C11" t="n">
-        <v>1459.556716529489</v>
+        <v>1452.672125045209</v>
       </c>
       <c r="D11" t="n">
-        <v>1145.91186289235</v>
+        <v>1398.198638179666</v>
       </c>
       <c r="E11" t="n">
-        <v>815.1246131550886</v>
+        <v>1067.411388442404</v>
       </c>
       <c r="F11" t="n">
-        <v>470.0264498312604</v>
+        <v>722.3132251185755</v>
       </c>
       <c r="G11" t="n">
-        <v>128.6599694654569</v>
+        <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654569</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K11" t="n">
         <v>565.7512566404055</v>
@@ -5060,31 +5060,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q11" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293022</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998633</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2704.639381529061</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V11" t="n">
-        <v>2434.328847378772</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W11" t="n">
-        <v>2434.328847378772</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X11" t="n">
-        <v>2434.328847378772</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="Y11" t="n">
-        <v>2109.634413445568</v>
+        <v>1781.370595610412</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H12" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1490.311599914302</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="O12" t="n">
-        <v>2009.716291882317</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>292.7094745562808</v>
+        <v>429.5208757722353</v>
       </c>
       <c r="C13" t="n">
-        <v>292.7094745562808</v>
+        <v>331.1120329844182</v>
       </c>
       <c r="D13" t="n">
-        <v>292.7094745562808</v>
+        <v>247.2751950331268</v>
       </c>
       <c r="E13" t="n">
-        <v>208.9469375616771</v>
+        <v>247.2751950331268</v>
       </c>
       <c r="F13" t="n">
-        <v>123.4172779208439</v>
+        <v>161.7455353922936</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208439</v>
+        <v>65.28775663793294</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208439</v>
+        <v>65.28775663793294</v>
       </c>
       <c r="I13" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581889</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027732</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118218</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138155</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173671</v>
+        <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
         <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593277</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1351.687755425299</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.764978739727</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="U13" t="n">
-        <v>974.1224621278218</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V13" t="n">
-        <v>779.9393920948398</v>
+        <v>905.7825322771341</v>
       </c>
       <c r="W13" t="n">
-        <v>568.4052651722113</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="X13" t="n">
-        <v>406.1212181013883</v>
+        <v>694.2484053545056</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.1212181013883</v>
+        <v>542.9326193173429</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1558.431545602419</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="C14" t="n">
-        <v>1558.431545602419</v>
+        <v>1711.843491816803</v>
       </c>
       <c r="D14" t="n">
-        <v>1244.786691965281</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
-        <v>913.999442228019</v>
+        <v>1067.411388442403</v>
       </c>
       <c r="F14" t="n">
-        <v>568.9012789041907</v>
+        <v>722.313225118575</v>
       </c>
       <c r="G14" t="n">
-        <v>227.5347985383877</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654568</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129444</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404062</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M14" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2954.252057911387</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>2770.29560349218</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2499.985069341893</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2200.782309456374</v>
+        <v>2358.198292302756</v>
       </c>
       <c r="X14" t="n">
-        <v>1883.125979535624</v>
+        <v>2040.541962382006</v>
       </c>
       <c r="Y14" t="n">
-        <v>1558.431545602419</v>
+        <v>2040.541962382006</v>
       </c>
     </row>
     <row r="15">
@@ -5358,22 +5358,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>802.5350401618138</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M15" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N15" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>426.2779458817298</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="C16" t="n">
-        <v>327.8691030939129</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="D16" t="n">
-        <v>327.8691030939129</v>
+        <v>472.8495292029535</v>
       </c>
       <c r="E16" t="n">
-        <v>244.1065660993093</v>
+        <v>389.0869922083499</v>
       </c>
       <c r="F16" t="n">
-        <v>158.5769064584761</v>
+        <v>303.5573325675167</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,16 +5440,16 @@
         <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1496.732641814507</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1365.712833143251</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1201.790056457679</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>988.1475398457735</v>
+        <v>936.0428256245439</v>
       </c>
       <c r="V16" t="n">
-        <v>793.9644698127917</v>
+        <v>899.8611058560468</v>
       </c>
       <c r="W16" t="n">
-        <v>582.4303428901632</v>
+        <v>899.8611058560468</v>
       </c>
       <c r="X16" t="n">
-        <v>577.5937319188926</v>
+        <v>737.5770587852238</v>
       </c>
       <c r="Y16" t="n">
-        <v>426.2779458817298</v>
+        <v>586.2612727480609</v>
       </c>
     </row>
     <row r="17">
@@ -5498,13 +5498,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803428</v>
       </c>
       <c r="H17" t="n">
         <v>68.77950792924223</v>
@@ -5513,10 +5513,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5552,13 +5552,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5598,13 +5598,13 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>978.5393418843826</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1606.310991511064</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O18" t="n">
         <v>1974.833293963354</v>
@@ -5671,16 +5671,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229927</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222411</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960409</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>499.953029634305</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
         <v>812.1990332879427</v>
@@ -5729,22 +5729,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975443</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099305</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803421</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924162</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5780,16 +5780,16 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
         <v>2147.691468840156</v>
@@ -5838,16 +5838,16 @@
         <v>865.4243596646552</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>677.5630210573304</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>969.3241577214669</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974527</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
         <v>68.77950792924223</v>
@@ -6023,16 +6023,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6069,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>112.6101842924878</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>596.176270190801</v>
       </c>
       <c r="M24" t="n">
         <v>1223.947919817482</v>
@@ -6145,28 +6145,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960409</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M25" t="n">
-        <v>499.953029634305</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6224,25 +6224,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N26" t="n">
-        <v>2546.304425485127</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O26" t="n">
-        <v>2986.344026377456</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
@@ -6309,16 +6309,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>556.9309448458635</v>
+        <v>357.2653989400741</v>
       </c>
       <c r="M27" t="n">
-        <v>1184.702594472545</v>
+        <v>985.0370485667553</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1640.815019777314</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="P27" t="n">
         <v>2157.335302368295</v>
@@ -6361,37 +6361,37 @@
         <v>504.3300981985352</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879681</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H28" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232843</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904116</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6424,10 +6424,10 @@
         <v>861.908456428645</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="29">
@@ -6443,16 +6443,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6461,28 +6461,28 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>576.9969878838402</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1100.286794884791</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1739.339056658945</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2360.20170202598</v>
       </c>
       <c r="O29" t="n">
-        <v>2956.374511095034</v>
+        <v>2893.292664647882</v>
       </c>
       <c r="P29" t="n">
-        <v>3390.346025506991</v>
+        <v>3334.531518508978</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3612.4284403795</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,10 +6491,10 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V29" t="n">
         <v>3060.131976164851</v>
@@ -6543,10 +6543,10 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>123.8559155359222</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>607.4220014342354</v>
       </c>
       <c r="M30" t="n">
         <v>1235.193651060917</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517122</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414155</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878064</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6625,13 +6625,13 @@
         <v>311.5288809192008</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225736</v>
+        <v>568.7078825225739</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351193</v>
+        <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6649,7 +6649,7 @@
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
@@ -6658,13 +6658,13 @@
         <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286443</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988158</v>
+        <v>722.7688154988159</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026476</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303045</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.3560533993079</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108108</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835522</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>319.47041387666</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041219</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.773061622651</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1765.220722740013</v>
       </c>
       <c r="N32" t="n">
-        <v>2293.758573419143</v>
+        <v>2404.684126952458</v>
       </c>
       <c r="O32" t="n">
-        <v>2839.071267038541</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3187.258759170063</v>
+        <v>3192.911219976308</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038081</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908497</v>
+        <v>3325.162335939833</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397278</v>
+        <v>3215.580844380775</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696898</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>92.03228324525611</v>
+        <v>387.2942816645716</v>
       </c>
       <c r="L33" t="n">
-        <v>575.5983691435694</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>870.8603675628849</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965128</v>
+        <v>365.6713676929727</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918665</v>
+        <v>309.385360640487</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237459</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123129</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546505</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834606</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431915</v>
+        <v>86.73045008374216</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076163</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>226.8819394803362</v>
+        <v>342.920675264815</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812062</v>
+        <v>612.8479737408653</v>
       </c>
       <c r="M34" t="n">
-        <v>701.1015743458859</v>
+        <v>799.1395520791293</v>
       </c>
       <c r="N34" t="n">
-        <v>989.5643011041652</v>
+        <v>1093.981306685321</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1256.686073727029</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649522</v>
+        <v>1376.562239503608</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873659</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308585</v>
+        <v>1370.002557387761</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420499</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689363</v>
+        <v>987.7859626250203</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395517</v>
+        <v>835.7257283273696</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000939</v>
+        <v>666.3144371400722</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124416</v>
+        <v>546.1532258045804</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584495</v>
+        <v>436.9602755027489</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498591</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975445</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
         <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803428</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924206</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6941,46 +6941,46 @@
         <v>565.7512566404055</v>
       </c>
       <c r="L35" t="n">
-        <v>1059.071548358932</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403513</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040975</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O35" t="n">
-        <v>2572.923332933304</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064826</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205774</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829234</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071059</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188066</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573993</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.467337224689</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443164</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="36">
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,22 +7011,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411549</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O36" t="n">
         <v>1740.468202408463</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885584</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369562</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218796</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634907</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588723</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407264</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462899</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411549</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>62.11912770411549</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960388</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>499.9530296343028</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>812.1990332879407</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>974.9038003296487</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106227</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.202162476278</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476278</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341236</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918788</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161883</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194211</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330074</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983991</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974511</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H38" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7199,22 +7199,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
         <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7351,7 +7351,7 @@
         <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7360,22 +7360,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U40" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7445,16 +7445,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7488,22 +7488,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>346.0196676966397</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P42" t="n">
         <v>2146.089571124861</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229882</v>
       </c>
       <c r="K43" t="n">
-        <v>143.9541688140574</v>
+        <v>149.5338114222407</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>313.6614512960405</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>499.9530296343045</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O43" t="n">
-        <v>845.8474307072221</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838006</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.20216247628</v>
@@ -7597,22 +7597,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="44">
@@ -7634,13 +7634,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G44" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803439</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924375</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7728,13 +7728,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1223.947919817482</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229933</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222412</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L46" t="n">
-        <v>313.661451296041</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M46" t="n">
-        <v>629.0093992567336</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879427</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296507</v>
+        <v>967.282790386233</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.779966106229</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.20216247628</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R46" t="n">
         <v>1098.20216247628</v>
@@ -7834,22 +7834,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U46" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974523</v>
+        <v>289.463261197452</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>422.1322957665001</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321644</v>
+        <v>390.643261404311</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8055,10 +8055,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>337.5384333828167</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
@@ -8067,13 +8067,13 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886037</v>
+        <v>485.8810686938594</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.47814334312</v>
       </c>
       <c r="P3" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
         <v>327.7205688679246</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>153.2481697304917</v>
+        <v>216.6643353997745</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321644</v>
+        <v>668.5156360519584</v>
       </c>
       <c r="N5" t="n">
-        <v>412.7281036010569</v>
+        <v>667.9090757920152</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>96.09182324999654</v>
+        <v>611.1777065035429</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886037</v>
+        <v>604.1626973083977</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413548</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>363.4321479293332</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>506.8283140129063</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,7 +8529,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8544,7 +8544,7 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O9" t="n">
-        <v>325.939387961783</v>
+        <v>440.1969457594874</v>
       </c>
       <c r="P9" t="n">
         <v>87.08336481931465</v>
@@ -8708,7 +8708,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>331.2113854294533</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8766,7 +8766,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8775,19 +8775,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>609.3287968270082</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P12" t="n">
-        <v>461.5665676450056</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9006,16 +9006,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>514.986373519011</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>747.7741039759435</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,16 +9246,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>457.616862805975</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9486,7 +9486,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>454.5321323046928</v>
+        <v>691.2645480167034</v>
       </c>
       <c r="N21" t="n">
         <v>85.37211285416666</v>
@@ -9498,7 +9498,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9717,13 +9717,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943154</v>
       </c>
       <c r="L24" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9957,19 +9957,19 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>376.8285690715887</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>136.3731801151484</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
         <v>327.7205688679246</v>
@@ -10191,13 +10191,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>412.5657697396227</v>
+        <v>140.5980025943151</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>454.5321323046924</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10428,7 +10428,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>112.3087888732268</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
@@ -10437,7 +10437,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>447.5171231095477</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10589,7 +10589,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L35" t="n">
-        <v>651.5514946987007</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M35" t="n">
         <v>701.2411122488187</v>
@@ -10662,7 +10662,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10671,13 +10671,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>220.8844470939643</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11136,25 +11136,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>262.1075997502998</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M42" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
         <v>327.7205688679246</v>
@@ -11376,16 +11376,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>454.5321323046928</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>136.3731801151487</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,10 +23258,10 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>256.5796531038793</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344424</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23312,13 +23312,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>28.77044737013875</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>314.4797666215418</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599388</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177853</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465761</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681704</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338909</v>
+        <v>82.84545313338906</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.54822607008195</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>37.69884013824552</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,10 +23492,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873667</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>151.8778267522407</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>249.6119301315474</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.447489593873</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177846</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338901</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456094</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901686</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,13 +23710,13 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>156.4213367618399</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>155.8729617385569</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -24683,7 +24683,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -25883,7 +25883,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.547562078485498e-12</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>894746.2286190098</v>
+        <v>892941.5857777289</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>894746.2286190098</v>
+        <v>892941.5857777289</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>810477.265705183</v>
+        <v>810477.2657051828</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>810477.265705183</v>
+        <v>810477.2657051829</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>906953.7771823815</v>
+        <v>906953.7771823816</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>906953.7771823816</v>
+        <v>906953.7771823817</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="C2" t="n">
-        <v>432797.2274240564</v>
+        <v>432797.2274240563</v>
       </c>
       <c r="D2" t="n">
         <v>432797.2274240563</v>
       </c>
       <c r="E2" t="n">
-        <v>382461.6562185612</v>
+        <v>382461.6562185611</v>
       </c>
       <c r="F2" t="n">
         <v>382461.6562185609</v>
       </c>
       <c r="G2" t="n">
-        <v>432797.2274240562</v>
+        <v>432797.2274240564</v>
       </c>
       <c r="H2" t="n">
         <v>432797.2274240562</v>
@@ -26338,19 +26338,19 @@
         <v>432797.2274240564</v>
       </c>
       <c r="K2" t="n">
+        <v>432797.2274240564</v>
+      </c>
+      <c r="L2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="M2" t="n">
+        <v>432797.2274240563</v>
+      </c>
+      <c r="N2" t="n">
+        <v>432797.2274240564</v>
+      </c>
+      <c r="O2" t="n">
         <v>432797.2274240562</v>
-      </c>
-      <c r="L2" t="n">
-        <v>432797.2274240559</v>
-      </c>
-      <c r="M2" t="n">
-        <v>432797.2274240564</v>
-      </c>
-      <c r="N2" t="n">
-        <v>432797.2274240562</v>
-      </c>
-      <c r="O2" t="n">
-        <v>432797.2274240563</v>
       </c>
       <c r="P2" t="n">
         <v>432797.2274240564</v>
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918559</v>
+        <v>173858.6570340553</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062194</v>
+        <v>22558.42953401333</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668195</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945025</v>
+        <v>200285.8640399295</v>
       </c>
       <c r="K3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728554</v>
+        <v>62456.24177539669</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.52447081118</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277113</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138793</v>
+        <v>237331.8440488214</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26433,7 +26433,7 @@
         <v>199269.1699682603</v>
       </c>
       <c r="H4" t="n">
-        <v>199269.1699682602</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="I4" t="n">
         <v>199269.1699682603</v>
@@ -26445,10 +26445,10 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.0885321601</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
-        <v>199269.1699682604</v>
+        <v>199269.1699682603</v>
       </c>
       <c r="N4" t="n">
         <v>199269.1699682603</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>53186.01969984054</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
         <v>53186.01969984052</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,10 +26497,10 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.7362917385</v>
+        <v>60823.19813315424</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551964</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48516.33462169251</v>
+        <v>-43563.34119363761</v>
       </c>
       <c r="C6" t="n">
-        <v>133688.6136701634</v>
+        <v>130295.3158404176</v>
       </c>
       <c r="D6" t="n">
-        <v>125367.7732845937</v>
+        <v>117631.4840612023</v>
       </c>
       <c r="E6" t="n">
-        <v>65642.82156799792</v>
+        <v>65433.09002130845</v>
       </c>
       <c r="F6" t="n">
-        <v>177765.3830420423</v>
+        <v>177555.6514953528</v>
       </c>
       <c r="G6" t="n">
-        <v>127932.9626035943</v>
+        <v>127932.9626035944</v>
       </c>
       <c r="H6" t="n">
+        <v>175358.2881402762</v>
+      </c>
+      <c r="I6" t="n">
         <v>175358.2881402764</v>
       </c>
-      <c r="I6" t="n">
-        <v>175358.2881402763</v>
-      </c>
       <c r="J6" t="n">
-        <v>-37683.629457009</v>
+        <v>-31167.34430243594</v>
       </c>
       <c r="K6" t="n">
-        <v>169118.5197374932</v>
+        <v>169118.5197374935</v>
       </c>
       <c r="L6" t="n">
-        <v>113935.9308028718</v>
+        <v>109887.0935924</v>
       </c>
       <c r="M6" t="n">
-        <v>133157.4586806533</v>
+        <v>132105.7636694652</v>
       </c>
       <c r="N6" t="n">
-        <v>175358.2881402762</v>
+        <v>175358.2881402764</v>
       </c>
       <c r="O6" t="n">
-        <v>147590.5940975052</v>
+        <v>147590.594097505</v>
       </c>
       <c r="P6" t="n">
         <v>175358.2881402764</v>
@@ -26692,16 +26692,16 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
       </c>
       <c r="H2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I2" t="n">
         <v>130.3599693155844</v>
@@ -26713,10 +26713,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N2" t="n">
         <v>130.3599693155844</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014445</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
         <v>776.4890963014441</v>
@@ -26811,16 +26811,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443782</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095203</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014436</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660692</v>
+        <v>78.07030221924586</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551353</v>
+        <v>17.58004954287458</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346391</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="E4" t="n">
-        <v>185.0769700321495</v>
+        <v>185.076970032149</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773713</v>
+        <v>659.3622249971652</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407277</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,25 +27151,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085244</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346394</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485799</v>
+        <v>72.62154181506401</v>
       </c>
       <c r="M4" t="n">
-        <v>185.0769700321495</v>
+        <v>185.076970032149</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>210.0717812736707</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.4512037863266</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -27518,13 +27518,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863162</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>104.308604720652</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27537,13 +27537,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>87.48657972057791</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27552,13 +27552,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27594,13 +27594,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>3.222747590974507</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>68.40251674205012</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>124.499747998678</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>7.656667631068274</v>
+        <v>124.5704364758535</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>75.25134650297782</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,10 +27786,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
@@ -27837,10 +27837,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>192.5236554299603</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>173.9741429018398</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,13 +27913,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>22.17998899513196</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28014,10 +28014,10 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
         <v>155.7526754391568</v>
@@ -28071,10 +28071,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>192.544010557426</v>
       </c>
       <c r="X10" t="n">
-        <v>220.1269184951917</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473187</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473194</v>
+        <v>71.0783123947319</v>
       </c>
     </row>
     <row r="17">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668811</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,10 +28752,10 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="N19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y20" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="21">
@@ -28956,31 +28956,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28995,37 +28995,37 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>35.71049010668751</v>
       </c>
       <c r="R22" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y22" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="23">
@@ -29217,31 +29217,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634529035</v>
+        <v>28.01250026485263</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29296,28 +29296,28 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N26" t="n">
-        <v>30.2722376590126</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="R26" t="n">
         <v>93.99127447431646</v>
@@ -29533,31 +29533,31 @@
         <v>93.99127447431646</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599589</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>43.49509683160181</v>
       </c>
       <c r="N32" t="n">
-        <v>48.65992738833268</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000709</v>
+        <v>106.8683420224752</v>
       </c>
       <c r="M34" t="n">
-        <v>18.71446861254103</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000709</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000709</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="36">
@@ -30141,43 +30141,43 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668788</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>5.636002634526875</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>130.3599693155845</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -30186,31 +30186,31 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155845</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="38">
@@ -30256,7 +30256,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>28.01250026485194</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30499,7 +30499,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -30639,7 +30639,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668765</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30651,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
-        <v>5.636002634528921</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>37.61298457733328</v>
@@ -30876,7 +30876,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30885,22 +30885,22 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>28.01250026485198</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>268.8841260360084</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344371</v>
+        <v>240.9182098065837</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,10 +34775,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.9414980494834</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
@@ -34787,13 +34787,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344371</v>
+        <v>400.5089558396928</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
         <v>236.7324157120106</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>63.41616566928276</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N5" t="n">
-        <v>263.6096122632728</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>3.704701200684619</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344371</v>
+        <v>518.7905844542311</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>90.9429491524659</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>220.3737447500958</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>357.103262415179</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35264,7 +35264,7 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O9" t="n">
-        <v>233.2518290728942</v>
+        <v>347.5093868705986</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35428,7 +35428,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>186.7126870110611</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35495,19 +35495,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>516.9416747776963</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>374.483202825691</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225728</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35583,10 +35583,10 @@
         <v>235.4265619318107</v>
       </c>
       <c r="P13" t="n">
-        <v>192.16534853269</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488435</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,16 +35726,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>424.9260266620927</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>662.4019911217769</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257287</v>
+        <v>41.00382492257283</v>
       </c>
       <c r="K16" t="n">
         <v>153.7399700815419</v>
@@ -35811,19 +35811,19 @@
         <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
-        <v>259.2516238475239</v>
+        <v>259.2516238475238</v>
       </c>
       <c r="N16" t="n">
         <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318108</v>
+        <v>235.4265619318107</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488442</v>
+        <v>74.53507640488438</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>372.2447499518083</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529037</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,10 +36048,10 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594801</v>
       </c>
       <c r="N19" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>362.1450102553808</v>
+        <v>598.8774259673916</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36218,7 +36218,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36291,13 +36291,13 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.456764010152483</v>
+        <v>39.16725411683999</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098205</v>
       </c>
       <c r="L24" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K25" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.421497456549</v>
+        <v>193.7979950868726</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,28 +36592,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
-        <v>563.4149484039237</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
         <v>56.37828989698318</v>
@@ -36677,19 +36677,19 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>286.7682222146705</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>51.00106726098179</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>236.7324157120106</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625836</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
         <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>56.37828989698318</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>322.9688344062893</v>
+        <v>51.00106726098173</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>362.1450102553805</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>252.4473390261599</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>595.0111574826933</v>
       </c>
       <c r="N32" t="n">
-        <v>581.8026381332438</v>
+        <v>645.922630517621</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111301</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>22.71185353989341</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
@@ -37157,7 +37157,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>362.1450102553811</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791186</v>
+        <v>82.70543230055077</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>195.4415774595198</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>272.6538368444952</v>
       </c>
       <c r="M34" t="n">
-        <v>206.887780065333</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750297</v>
+        <v>297.8199541476686</v>
       </c>
       <c r="O34" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L35" t="n">
-        <v>498.303324968209</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
         <v>551.5160606510915</v>
@@ -37382,7 +37382,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37391,13 +37391,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>5.636002634528808</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>171.4214974565469</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>315.4000036905433</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37482,7 +37482,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37552,7 +37552,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N38" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
         <v>444.4844453457863</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37719,10 +37719,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>31.46926427500442</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37856,25 +37856,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>172.5106644169664</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>236.7324157120106</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.636002634528578</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
@@ -37947,16 +37947,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905432</v>
       </c>
       <c r="O43" t="n">
-        <v>169.9842521716078</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,7 +38035,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38096,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>362.1450102553808</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>51.00106726098203</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529095</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
         <v>82.66165768680997</v>
@@ -38181,13 +38181,13 @@
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019308</v>
       </c>
       <c r="P46" t="n">
         <v>121.0870361379582</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835607</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
